--- a/data/experimental_data/data.xlsx
+++ b/data/experimental_data/data.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlvlp\OneDrive\Рабочий стол\machine learning\electrocatalysis\data\experimental_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="aKIRr5R9zP/0jHHBmKPuQdG7QN7SWXBK3MhfsQ7gYK0="/>
@@ -540,45 +548,48 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -588,7 +599,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -604,7 +615,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -618,93 +635,95 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -894,28 +913,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.29"/>
-    <col customWidth="1" min="2" max="2" width="18.43"/>
-    <col customWidth="1" min="3" max="3" width="15.71"/>
-    <col customWidth="1" min="4" max="4" width="11.57"/>
-    <col customWidth="1" min="5" max="5" width="10.43"/>
-    <col customWidth="1" min="6" max="24" width="8.71"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -965,7 +986,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -982,13 +1003,13 @@
         <v>19</v>
       </c>
       <c r="F2" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>21</v>
@@ -1000,22 +1021,22 @@
         <v>0.2</v>
       </c>
       <c r="L2" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M2" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N2" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O2" s="8">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="P2" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -1032,13 +1053,13 @@
         <v>25</v>
       </c>
       <c r="F3" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>21</v>
@@ -1050,22 +1071,22 @@
         <v>0.2</v>
       </c>
       <c r="L3" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M3" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N3" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="8">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -1082,13 +1103,13 @@
         <v>27</v>
       </c>
       <c r="F4" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>21</v>
@@ -1100,22 +1121,22 @@
         <v>0.2</v>
       </c>
       <c r="L4" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M4" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N4" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="8">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -1132,13 +1153,13 @@
         <v>19</v>
       </c>
       <c r="F5" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>21</v>
@@ -1150,22 +1171,22 @@
         <v>0.2</v>
       </c>
       <c r="L5" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M5" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="8">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -1182,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="F6" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>21</v>
@@ -1200,22 +1221,22 @@
         <v>0.2</v>
       </c>
       <c r="L6" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M6" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N6" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="8">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -1232,13 +1253,13 @@
         <v>19</v>
       </c>
       <c r="F7" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>21</v>
@@ -1250,22 +1271,22 @@
         <v>0.1</v>
       </c>
       <c r="L7" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M7" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N7" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="8">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -1282,13 +1303,13 @@
         <v>19</v>
       </c>
       <c r="F8" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>21</v>
@@ -1300,22 +1321,22 @@
         <v>0.2</v>
       </c>
       <c r="L8" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M8" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N8" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="8">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
@@ -1332,13 +1353,13 @@
         <v>19</v>
       </c>
       <c r="F9" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>21</v>
@@ -1350,22 +1371,22 @@
         <v>0.1</v>
       </c>
       <c r="L9" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M9" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N9" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="8">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -1382,13 +1403,13 @@
         <v>19</v>
       </c>
       <c r="F10" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>37</v>
@@ -1400,22 +1421,22 @@
         <v>0.2</v>
       </c>
       <c r="L10" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M10" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N10" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="8">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="P10" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -1432,13 +1453,13 @@
         <v>19</v>
       </c>
       <c r="F11" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>39</v>
@@ -1450,22 +1471,22 @@
         <v>0.2</v>
       </c>
       <c r="L11" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N11" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="8">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
@@ -1482,13 +1503,13 @@
         <v>19</v>
       </c>
       <c r="F12" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>21</v>
@@ -1503,19 +1524,19 @@
         <v>0.1</v>
       </c>
       <c r="M12" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N12" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="8">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="P12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -1532,13 +1553,13 @@
         <v>19</v>
       </c>
       <c r="F13" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>21</v>
@@ -1553,19 +1574,19 @@
         <v>0.5</v>
       </c>
       <c r="M13" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N13" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O13" s="8">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -1582,13 +1603,13 @@
         <v>19</v>
       </c>
       <c r="F14" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>21</v>
@@ -1600,22 +1621,22 @@
         <v>0.2</v>
       </c>
       <c r="L14" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N14" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="8">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="P14" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -1632,13 +1653,13 @@
         <v>19</v>
       </c>
       <c r="F15" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>21</v>
@@ -1650,22 +1671,22 @@
         <v>0.2</v>
       </c>
       <c r="L15" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M15" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N15" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="8">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
@@ -1682,13 +1703,13 @@
         <v>19</v>
       </c>
       <c r="F16" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>21</v>
@@ -1700,22 +1721,22 @@
         <v>0.2</v>
       </c>
       <c r="L16" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="M16" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N16" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O16" s="8">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="P16" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -1732,13 +1753,13 @@
         <v>19</v>
       </c>
       <c r="F17" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>21</v>
@@ -1750,22 +1771,22 @@
         <v>0.2</v>
       </c>
       <c r="L17" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M17" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N17" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O17" s="8">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="P17" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1782,13 +1803,13 @@
         <v>19</v>
       </c>
       <c r="F18" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>37</v>
@@ -1800,22 +1821,22 @@
         <v>0.2</v>
       </c>
       <c r="L18" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N18" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O18" s="12">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="P18" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
@@ -1832,13 +1853,13 @@
         <v>50</v>
       </c>
       <c r="F19" s="12">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>21</v>
@@ -1850,22 +1871,22 @@
         <v>0.2</v>
       </c>
       <c r="L19" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M19" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N19" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O19" s="12">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="P19" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
@@ -1882,13 +1903,13 @@
         <v>20</v>
       </c>
       <c r="F20" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>21</v>
@@ -1900,22 +1921,22 @@
         <v>0.2</v>
       </c>
       <c r="L20" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M20" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N20" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O20" s="12">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="P20" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>52</v>
       </c>
@@ -1932,13 +1953,13 @@
         <v>25</v>
       </c>
       <c r="F21" s="12">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>54</v>
       </c>
       <c r="H21" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>21</v>
@@ -1950,22 +1971,22 @@
         <v>0.2</v>
       </c>
       <c r="L21" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N21" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O21" s="12">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="P21" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>55</v>
       </c>
@@ -1982,13 +2003,13 @@
         <v>25</v>
       </c>
       <c r="F22" s="12">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>54</v>
       </c>
       <c r="H22" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>21</v>
@@ -2000,22 +2021,22 @@
         <v>0.2</v>
       </c>
       <c r="L22" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N22" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O22" s="12">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="P22" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
@@ -2032,13 +2053,13 @@
         <v>19</v>
       </c>
       <c r="F23" s="12">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>21</v>
@@ -2050,22 +2071,22 @@
         <v>0.2</v>
       </c>
       <c r="L23" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M23" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N23" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O23" s="12">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="P23" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -2082,13 +2103,13 @@
         <v>25</v>
       </c>
       <c r="F24" s="12">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>21</v>
@@ -2100,22 +2121,22 @@
         <v>0.2</v>
       </c>
       <c r="L24" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N24" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O24" s="12">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="P24" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>61</v>
       </c>
@@ -2132,13 +2153,13 @@
         <v>25</v>
       </c>
       <c r="F25" s="12">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>21</v>
@@ -2150,22 +2171,22 @@
         <v>0.2</v>
       </c>
       <c r="L25" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N25" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O25" s="12">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="P25" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -2182,13 +2203,13 @@
         <v>19</v>
       </c>
       <c r="F26" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>21</v>
@@ -2200,22 +2221,22 @@
         <v>0.2</v>
       </c>
       <c r="L26" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N26" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O26" s="8">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="P26" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>64</v>
       </c>
@@ -2232,13 +2253,13 @@
         <v>19</v>
       </c>
       <c r="F27" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>37</v>
@@ -2250,22 +2271,22 @@
         <v>0.2</v>
       </c>
       <c r="L27" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N27" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O27" s="8">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="P27" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>66</v>
       </c>
@@ -2282,13 +2303,13 @@
         <v>19</v>
       </c>
       <c r="F28" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H28" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>37</v>
@@ -2300,22 +2321,22 @@
         <v>0.2</v>
       </c>
       <c r="L28" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N28" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O28" s="8">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="P28" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>68</v>
       </c>
@@ -2332,13 +2353,13 @@
         <v>19</v>
       </c>
       <c r="F29" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>21</v>
@@ -2350,22 +2371,22 @@
         <v>0.2</v>
       </c>
       <c r="L29" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M29" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N29" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O29" s="8">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="P29" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>70</v>
       </c>
@@ -2382,13 +2403,13 @@
         <v>19</v>
       </c>
       <c r="F30" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
       <c r="H30" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>21</v>
@@ -2400,22 +2421,22 @@
         <v>0.2</v>
       </c>
       <c r="L30" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M30" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N30" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O30" s="8">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="P30" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>72</v>
       </c>
@@ -2432,13 +2453,13 @@
         <v>19</v>
       </c>
       <c r="F31" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>21</v>
@@ -2450,22 +2471,22 @@
         <v>0.2</v>
       </c>
       <c r="L31" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N31" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O31" s="8">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="P31" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
@@ -2482,13 +2503,13 @@
         <v>19</v>
       </c>
       <c r="F32" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H32" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>21</v>
@@ -2500,22 +2521,22 @@
         <v>0.2</v>
       </c>
       <c r="L32" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M32" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N32" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O32" s="8">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="P32" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>75</v>
       </c>
@@ -2532,13 +2553,13 @@
         <v>19</v>
       </c>
       <c r="F33" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H33" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>21</v>
@@ -2550,22 +2571,22 @@
         <v>0.2</v>
       </c>
       <c r="L33" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M33" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N33" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O33" s="8">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="P33" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
@@ -2582,13 +2603,13 @@
         <v>19</v>
       </c>
       <c r="F34" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H34" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>21</v>
@@ -2600,22 +2621,22 @@
         <v>0.2</v>
       </c>
       <c r="L34" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M34" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N34" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O34" s="8">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="P34" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>79</v>
       </c>
@@ -2632,13 +2653,13 @@
         <v>19</v>
       </c>
       <c r="F35" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>21</v>
@@ -2650,22 +2671,22 @@
         <v>0.2</v>
       </c>
       <c r="L35" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N35" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O35" s="8">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="P35" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>81</v>
       </c>
@@ -2682,13 +2703,13 @@
         <v>19</v>
       </c>
       <c r="F36" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>21</v>
@@ -2700,22 +2721,22 @@
         <v>0.2</v>
       </c>
       <c r="L36" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M36" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N36" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O36" s="8">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="P36" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>83</v>
       </c>
@@ -2732,13 +2753,13 @@
         <v>25</v>
       </c>
       <c r="F37" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H37" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>37</v>
@@ -2750,22 +2771,22 @@
         <v>0.2</v>
       </c>
       <c r="L37" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M37" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N37" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O37" s="8">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="P37" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>86</v>
       </c>
@@ -2782,13 +2803,13 @@
         <v>25</v>
       </c>
       <c r="F38" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H38" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>37</v>
@@ -2800,22 +2821,22 @@
         <v>0.2</v>
       </c>
       <c r="L38" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M38" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N38" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O38" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="P38" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>88</v>
       </c>
@@ -2832,13 +2853,13 @@
         <v>25</v>
       </c>
       <c r="F39" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>89</v>
       </c>
       <c r="H39" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>37</v>
@@ -2850,22 +2871,22 @@
         <v>0.2</v>
       </c>
       <c r="L39" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M39" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N39" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O39" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P39" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>90</v>
       </c>
@@ -2882,13 +2903,13 @@
         <v>19</v>
       </c>
       <c r="F40" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H40" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>37</v>
@@ -2900,22 +2921,22 @@
         <v>0.2</v>
       </c>
       <c r="L40" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M40" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N40" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O40" s="8">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="P40" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>91</v>
       </c>
@@ -2932,13 +2953,13 @@
         <v>25</v>
       </c>
       <c r="F41" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H41" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>37</v>
@@ -2950,22 +2971,22 @@
         <v>0.2</v>
       </c>
       <c r="L41" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M41" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N41" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O41" s="8">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="P41" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>92</v>
       </c>
@@ -2982,13 +3003,13 @@
         <v>25</v>
       </c>
       <c r="F42" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H42" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>37</v>
@@ -3000,22 +3021,22 @@
         <v>0.2</v>
       </c>
       <c r="L42" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M42" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N42" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O42" s="8">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="P42" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>93</v>
       </c>
@@ -3032,13 +3053,13 @@
         <v>25</v>
       </c>
       <c r="F43" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H43" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>37</v>
@@ -3050,22 +3071,22 @@
         <v>0.1</v>
       </c>
       <c r="L43" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M43" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N43" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O43" s="8">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="P43" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>94</v>
       </c>
@@ -3082,13 +3103,13 @@
         <v>25</v>
       </c>
       <c r="F44" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H44" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>37</v>
@@ -3100,22 +3121,22 @@
         <v>0.1</v>
       </c>
       <c r="L44" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M44" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N44" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O44" s="8">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="P44" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
@@ -3132,13 +3153,13 @@
         <v>25</v>
       </c>
       <c r="F45" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H45" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>21</v>
@@ -3150,22 +3171,22 @@
         <v>0.2</v>
       </c>
       <c r="L45" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M45" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N45" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O45" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="P45" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>96</v>
       </c>
@@ -3182,13 +3203,13 @@
         <v>25</v>
       </c>
       <c r="F46" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H46" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>39</v>
@@ -3200,22 +3221,22 @@
         <v>0.2</v>
       </c>
       <c r="L46" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M46" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N46" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O46" s="8">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="P46" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>97</v>
       </c>
@@ -3232,13 +3253,13 @@
         <v>25</v>
       </c>
       <c r="F47" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H47" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>37</v>
@@ -3250,22 +3271,22 @@
         <v>0.2</v>
       </c>
       <c r="L47" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M47" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N47" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O47" s="8">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="P47" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>98</v>
       </c>
@@ -3282,13 +3303,13 @@
         <v>25</v>
       </c>
       <c r="F48" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H48" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>37</v>
@@ -3300,22 +3321,22 @@
         <v>0.2</v>
       </c>
       <c r="L48" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M48" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N48" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O48" s="8">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="P48" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>99</v>
       </c>
@@ -3332,13 +3353,13 @@
         <v>25</v>
       </c>
       <c r="F49" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H49" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>37</v>
@@ -3353,19 +3374,19 @@
         <v>0.5</v>
       </c>
       <c r="M49" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N49" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O49" s="8">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="P49" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>100</v>
       </c>
@@ -3382,13 +3403,13 @@
         <v>25</v>
       </c>
       <c r="F50" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H50" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>37</v>
@@ -3400,22 +3421,22 @@
         <v>0.2</v>
       </c>
       <c r="L50" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M50" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N50" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O50" s="8">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="P50" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>101</v>
       </c>
@@ -3432,13 +3453,13 @@
         <v>25</v>
       </c>
       <c r="F51" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H51" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>37</v>
@@ -3450,22 +3471,22 @@
         <v>0.2</v>
       </c>
       <c r="L51" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M51" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N51" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O51" s="8">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="P51" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>102</v>
       </c>
@@ -3482,13 +3503,13 @@
         <v>25</v>
       </c>
       <c r="F52" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H52" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>37</v>
@@ -3500,22 +3521,22 @@
         <v>0.2</v>
       </c>
       <c r="L52" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="M52" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N52" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O52" s="8">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="P52" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>103</v>
       </c>
@@ -3532,13 +3553,13 @@
         <v>25</v>
       </c>
       <c r="F53" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H53" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>37</v>
@@ -3550,22 +3571,22 @@
         <v>0.2</v>
       </c>
       <c r="L53" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M53" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N53" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O53" s="8">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="P53" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>104</v>
       </c>
@@ -3582,13 +3603,13 @@
         <v>25</v>
       </c>
       <c r="F54" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H54" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>37</v>
@@ -3600,22 +3621,22 @@
         <v>0.1</v>
       </c>
       <c r="L54" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M54" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N54" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O54" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="P54" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>106</v>
       </c>
@@ -3632,13 +3653,13 @@
         <v>50</v>
       </c>
       <c r="F55" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H55" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>37</v>
@@ -3650,22 +3671,22 @@
         <v>0.2</v>
       </c>
       <c r="L55" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M55" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N55" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O55" s="12">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="P55" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>107</v>
       </c>
@@ -3682,13 +3703,13 @@
         <v>25</v>
       </c>
       <c r="F56" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H56" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>37</v>
@@ -3700,22 +3721,22 @@
         <v>0.2</v>
       </c>
       <c r="L56" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M56" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N56" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O56" s="12">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="P56" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>109</v>
       </c>
@@ -3732,13 +3753,13 @@
         <v>25</v>
       </c>
       <c r="F57" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H57" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>37</v>
@@ -3750,22 +3771,22 @@
         <v>0.1</v>
       </c>
       <c r="L57" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M57" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N57" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O57" s="12">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="P57" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>110</v>
       </c>
@@ -3782,13 +3803,13 @@
         <v>25</v>
       </c>
       <c r="F58" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>87</v>
       </c>
       <c r="H58" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>37</v>
@@ -3800,22 +3821,22 @@
         <v>0.2</v>
       </c>
       <c r="L58" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M58" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N58" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O58" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P58" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>111</v>
       </c>
@@ -3832,13 +3853,13 @@
         <v>25</v>
       </c>
       <c r="F59" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H59" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>37</v>
@@ -3850,22 +3871,22 @@
         <v>0.2</v>
       </c>
       <c r="L59" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M59" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N59" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O59" s="12">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="P59" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>112</v>
       </c>
@@ -3882,13 +3903,13 @@
         <v>25</v>
       </c>
       <c r="F60" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H60" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>37</v>
@@ -3900,22 +3921,22 @@
         <v>0.2</v>
       </c>
       <c r="L60" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M60" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N60" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O60" s="12">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="P60" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>114</v>
       </c>
@@ -3932,13 +3953,13 @@
         <v>25</v>
       </c>
       <c r="F61" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H61" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>37</v>
@@ -3950,22 +3971,22 @@
         <v>0.2</v>
       </c>
       <c r="L61" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M61" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N61" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O61" s="12">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="P61" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>116</v>
       </c>
@@ -3982,13 +4003,13 @@
         <v>25</v>
       </c>
       <c r="F62" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H62" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>37</v>
@@ -4000,22 +4021,22 @@
         <v>0.2</v>
       </c>
       <c r="L62" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M62" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N62" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O62" s="12">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="P62" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>118</v>
       </c>
@@ -4032,13 +4053,13 @@
         <v>25</v>
       </c>
       <c r="F63" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H63" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I63" s="8" t="s">
         <v>37</v>
@@ -4050,22 +4071,22 @@
         <v>0.2</v>
       </c>
       <c r="L63" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M63" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N63" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O63" s="8">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="P63" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>120</v>
       </c>
@@ -4082,13 +4103,13 @@
         <v>25</v>
       </c>
       <c r="F64" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H64" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>37</v>
@@ -4100,22 +4121,22 @@
         <v>0.2</v>
       </c>
       <c r="L64" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M64" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N64" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O64" s="8">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="P64" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>122</v>
       </c>
@@ -4132,13 +4153,13 @@
         <v>25</v>
       </c>
       <c r="F65" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H65" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>37</v>
@@ -4150,22 +4171,22 @@
         <v>0.2</v>
       </c>
       <c r="L65" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M65" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N65" s="8">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="O65" s="8">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="P65" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>124</v>
       </c>
@@ -4182,13 +4203,13 @@
         <v>25</v>
       </c>
       <c r="F66" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H66" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>37</v>
@@ -4200,22 +4221,22 @@
         <v>0.2</v>
       </c>
       <c r="L66" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M66" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N66" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O66" s="8">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="P66" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>126</v>
       </c>
@@ -4232,13 +4253,13 @@
         <v>25</v>
       </c>
       <c r="F67" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H67" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>37</v>
@@ -4250,22 +4271,22 @@
         <v>0.2</v>
       </c>
       <c r="L67" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M67" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N67" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O67" s="8">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="P67" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>127</v>
       </c>
@@ -4282,13 +4303,13 @@
         <v>25</v>
       </c>
       <c r="F68" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H68" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>37</v>
@@ -4300,22 +4321,22 @@
         <v>0.1</v>
       </c>
       <c r="L68" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M68" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N68" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O68" s="8">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="P68" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>129</v>
       </c>
@@ -4332,13 +4353,13 @@
         <v>25</v>
       </c>
       <c r="F69" s="8">
-        <v>3.0</v>
+        <v>10</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H69" s="8">
-        <v>10.0</v>
+        <v>3</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>37</v>
@@ -4350,22 +4371,22 @@
         <v>0.1</v>
       </c>
       <c r="L69" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M69" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N69" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O69" s="8">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="P69" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>130</v>
       </c>
@@ -4382,13 +4403,13 @@
         <v>25</v>
       </c>
       <c r="F70" s="8">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H70" s="8">
-        <v>10.0</v>
+      <c r="H70" s="10">
+        <v>1.5</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>37</v>
@@ -4400,22 +4421,22 @@
         <v>0.1</v>
       </c>
       <c r="L70" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M70" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N70" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O70" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="P70" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>131</v>
       </c>
@@ -4432,13 +4453,13 @@
         <v>25</v>
       </c>
       <c r="F71" s="8">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H71" s="8">
-        <v>10.0</v>
+      <c r="H71" s="10">
+        <v>1.5</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>37</v>
@@ -4450,22 +4471,22 @@
         <v>0.1</v>
       </c>
       <c r="L71" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M71" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N71" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O71" s="8">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="P71" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>132</v>
       </c>
@@ -4482,13 +4503,13 @@
         <v>25</v>
       </c>
       <c r="F72" s="8">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H72" s="8">
-        <v>10.0</v>
+      <c r="H72" s="10">
+        <v>1.5</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>37</v>
@@ -4500,22 +4521,22 @@
         <v>0.1</v>
       </c>
       <c r="L72" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M72" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N72" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O72" s="8">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="P72" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>134</v>
       </c>
@@ -4532,13 +4553,13 @@
         <v>25</v>
       </c>
       <c r="F73" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>135</v>
       </c>
       <c r="H73" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>37</v>
@@ -4550,22 +4571,22 @@
         <v>0.1</v>
       </c>
       <c r="L73" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M73" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N73" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O73" s="8">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="P73" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>136</v>
       </c>
@@ -4582,13 +4603,13 @@
         <v>25</v>
       </c>
       <c r="F74" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>137</v>
       </c>
       <c r="H74" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>37</v>
@@ -4600,22 +4621,22 @@
         <v>0.1</v>
       </c>
       <c r="L74" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M74" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N74" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O74" s="8">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="P74" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>138</v>
       </c>
@@ -4632,13 +4653,13 @@
         <v>19</v>
       </c>
       <c r="F75" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H75" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>37</v>
@@ -4650,22 +4671,22 @@
         <v>0.1</v>
       </c>
       <c r="L75" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M75" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N75" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O75" s="8">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="P75" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>139</v>
       </c>
@@ -4682,13 +4703,13 @@
         <v>27</v>
       </c>
       <c r="F76" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H76" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>37</v>
@@ -4700,22 +4721,22 @@
         <v>0.1</v>
       </c>
       <c r="L76" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M76" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N76" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O76" s="8">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="P76" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>140</v>
       </c>
@@ -4732,13 +4753,13 @@
         <v>25</v>
       </c>
       <c r="F77" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H77" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>37</v>
@@ -4750,22 +4771,22 @@
         <v>0.1</v>
       </c>
       <c r="L77" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M77" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N77" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O77" s="8">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="P77" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>141</v>
       </c>
@@ -4782,13 +4803,13 @@
         <v>25</v>
       </c>
       <c r="F78" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H78" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>37</v>
@@ -4800,22 +4821,22 @@
         <v>0.1</v>
       </c>
       <c r="L78" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M78" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N78" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O78" s="8">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="P78" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>142</v>
       </c>
@@ -4832,13 +4853,13 @@
         <v>25</v>
       </c>
       <c r="F79" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H79" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>37</v>
@@ -4850,22 +4871,22 @@
         <v>0.2</v>
       </c>
       <c r="L79" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M79" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N79" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O79" s="8">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="P79" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>143</v>
       </c>
@@ -4882,13 +4903,13 @@
         <v>25</v>
       </c>
       <c r="F80" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H80" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>21</v>
@@ -4900,22 +4921,22 @@
         <v>0.1</v>
       </c>
       <c r="L80" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M80" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N80" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O80" s="8">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="P80" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>144</v>
       </c>
@@ -4932,13 +4953,13 @@
         <v>25</v>
       </c>
       <c r="F81" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H81" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>39</v>
@@ -4950,22 +4971,22 @@
         <v>0.1</v>
       </c>
       <c r="L81" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M81" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N81" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O81" s="8">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="P81" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>145</v>
       </c>
@@ -4982,13 +5003,13 @@
         <v>25</v>
       </c>
       <c r="F82" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H82" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>21</v>
@@ -5003,19 +5024,19 @@
         <v>0.5</v>
       </c>
       <c r="M82" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N82" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O82" s="8">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="P82" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>146</v>
       </c>
@@ -5032,13 +5053,13 @@
         <v>25</v>
       </c>
       <c r="F83" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H83" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>21</v>
@@ -5050,22 +5071,22 @@
         <v>0.1</v>
       </c>
       <c r="L83" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M83" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N83" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O83" s="8">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="P83" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>147</v>
       </c>
@@ -5082,13 +5103,13 @@
         <v>25</v>
       </c>
       <c r="F84" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H84" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>21</v>
@@ -5100,22 +5121,22 @@
         <v>0.1</v>
       </c>
       <c r="L84" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M84" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N84" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O84" s="8">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="P84" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>148</v>
       </c>
@@ -5132,13 +5153,13 @@
         <v>25</v>
       </c>
       <c r="F85" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G85" s="12" t="s">
         <v>54</v>
       </c>
       <c r="H85" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I85" s="12" t="s">
         <v>21</v>
@@ -5150,22 +5171,22 @@
         <v>0.1</v>
       </c>
       <c r="L85" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M85" s="12">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N85" s="12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O85" s="12">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="P85" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>150</v>
       </c>
@@ -5182,7 +5203,7 @@
         <v>25</v>
       </c>
       <c r="F86" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>89</v>
@@ -5200,22 +5221,22 @@
         <v>0.1</v>
       </c>
       <c r="L86" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M86" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N86" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O86" s="12">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="P86" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>151</v>
       </c>
@@ -5232,13 +5253,13 @@
         <v>25</v>
       </c>
       <c r="F87" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G87" s="12" t="s">
         <v>54</v>
       </c>
       <c r="H87" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I87" s="12" t="s">
         <v>37</v>
@@ -5250,22 +5271,22 @@
         <v>0.1</v>
       </c>
       <c r="L87" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M87" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N87" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O87" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P87" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>153</v>
       </c>
@@ -5282,13 +5303,13 @@
         <v>25</v>
       </c>
       <c r="F88" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>54</v>
       </c>
       <c r="H88" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I88" s="12" t="s">
         <v>37</v>
@@ -5300,22 +5321,22 @@
         <v>0.1</v>
       </c>
       <c r="L88" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M88" s="12">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N88" s="12">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O88" s="12">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="P88" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>155</v>
       </c>
@@ -5332,13 +5353,13 @@
         <v>25</v>
       </c>
       <c r="F89" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H89" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>21</v>
@@ -5350,22 +5371,22 @@
         <v>0.1</v>
       </c>
       <c r="L89" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M89" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N89" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O89" s="8">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="P89" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>157</v>
       </c>
@@ -5382,13 +5403,13 @@
         <v>25</v>
       </c>
       <c r="F90" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H90" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I90" s="8" t="s">
         <v>21</v>
@@ -5400,22 +5421,22 @@
         <v>0.1</v>
       </c>
       <c r="L90" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M90" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N90" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O90" s="8">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="P90" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>159</v>
       </c>
@@ -5432,13 +5453,13 @@
         <v>25</v>
       </c>
       <c r="F91" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H91" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>21</v>
@@ -5450,22 +5471,22 @@
         <v>0.1</v>
       </c>
       <c r="L91" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M91" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N91" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O91" s="8">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="P91" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>161</v>
       </c>
@@ -5482,13 +5503,13 @@
         <v>25</v>
       </c>
       <c r="F92" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H92" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>21</v>
@@ -5500,22 +5521,22 @@
         <v>0.1</v>
       </c>
       <c r="L92" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M92" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N92" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O92" s="8">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="P92" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>162</v>
       </c>
@@ -5532,13 +5553,13 @@
         <v>25</v>
       </c>
       <c r="F93" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H93" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>21</v>
@@ -5550,22 +5571,22 @@
         <v>0.1</v>
       </c>
       <c r="L93" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M93" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N93" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O93" s="8">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="P93" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>163</v>
       </c>
@@ -5582,13 +5603,13 @@
         <v>25</v>
       </c>
       <c r="F94" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H94" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>21</v>
@@ -5600,22 +5621,22 @@
         <v>0.1</v>
       </c>
       <c r="L94" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M94" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N94" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O94" s="8">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="P94" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="17" t="s">
         <v>164</v>
       </c>
@@ -5632,13 +5653,13 @@
         <v>19</v>
       </c>
       <c r="F95" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H95" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>21</v>
@@ -5650,16 +5671,16 @@
         <v>0.2</v>
       </c>
       <c r="L95" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M95" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N95" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O95" s="6">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="P95" s="18" t="s">
         <v>165</v>
@@ -5667,7 +5688,7 @@
       <c r="R95" s="18"/>
       <c r="S95" s="19"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>166</v>
       </c>
@@ -5684,13 +5705,13 @@
         <v>19</v>
       </c>
       <c r="F96" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H96" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>21</v>
@@ -5702,22 +5723,22 @@
         <v>0.2</v>
       </c>
       <c r="L96" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M96" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N96" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O96" s="6">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="P96" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
         <v>167</v>
       </c>
@@ -5734,13 +5755,13 @@
         <v>19</v>
       </c>
       <c r="F97" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H97" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>21</v>
@@ -5752,22 +5773,22 @@
         <v>0.2</v>
       </c>
       <c r="L97" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M97" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N97" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O97" s="6">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="P97" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
         <v>168</v>
       </c>
@@ -5784,13 +5805,13 @@
         <v>25</v>
       </c>
       <c r="F98" s="20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H98" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I98" s="21" t="s">
         <v>37</v>
@@ -5802,22 +5823,22 @@
         <v>0.2</v>
       </c>
       <c r="L98" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M98" s="23">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N98" s="20">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O98" s="20">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="P98" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
         <v>169</v>
       </c>
@@ -5834,13 +5855,13 @@
         <v>25</v>
       </c>
       <c r="F99" s="20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H99" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I99" s="21" t="s">
         <v>37</v>
@@ -5852,22 +5873,22 @@
         <v>0.2</v>
       </c>
       <c r="L99" s="20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M99" s="20">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N99" s="20">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O99" s="20">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="P99" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
         <v>170</v>
       </c>
@@ -5884,13 +5905,13 @@
         <v>25</v>
       </c>
       <c r="F100" s="20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H100" s="20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I100" s="22" t="s">
         <v>21</v>
@@ -5902,22 +5923,22 @@
         <v>0.1</v>
       </c>
       <c r="L100" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M100" s="20">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N100" s="20">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O100" s="20">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="P100" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
         <v>171</v>
       </c>
@@ -5934,13 +5955,13 @@
         <v>25</v>
       </c>
       <c r="F101" s="20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G101" s="22" t="s">
         <v>54</v>
       </c>
       <c r="H101" s="20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I101" s="22" t="s">
         <v>21</v>
@@ -5952,22 +5973,22 @@
         <v>0.1</v>
       </c>
       <c r="L101" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M101" s="20">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N101" s="20">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O101" s="20">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="P101" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
         <v>172</v>
       </c>
@@ -5984,13 +6005,13 @@
         <v>25</v>
       </c>
       <c r="F102" s="20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G102" s="22" t="s">
         <v>54</v>
       </c>
       <c r="H102" s="20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I102" s="22" t="s">
         <v>21</v>
@@ -6002,922 +6023,920 @@
         <v>0.1</v>
       </c>
       <c r="L102" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M102" s="20">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="N102" s="20">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O102" s="20">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P102" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="103" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>